--- a/datos_guardados.xlsx
+++ b/datos_guardados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>id_user</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hueheu</t>
+  </si>
+  <si>
+    <t>2023-05-11</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>dsfa</t>
   </si>
 </sst>
 </file>
@@ -326,7 +341,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,6 +407,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/datos_guardados.xlsx
+++ b/datos_guardados.xlsx
@@ -71,7 +71,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>pendiente</t>
+    <t>finalizado</t>
   </si>
   <si>
     <t>123</t>

--- a/datos_guardados.xlsx
+++ b/datos_guardados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>id_user</t>
   </si>
@@ -29,64 +29,194 @@
     <t>1</t>
   </si>
   <si>
-    <t>user</t>
+    <t>admin</t>
   </si>
   <si>
     <t>1234</t>
   </si>
   <si>
+    <t>id_caso</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>costo</t>
+  </si>
+  <si>
+    <t>detalles</t>
+  </si>
+  <si>
+    <t>saldo_pendiente</t>
+  </si>
+  <si>
+    <t>estado_del_proceso</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>registro de escritura</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>El caso involucra la escritura de propiedad de un terreno 
+ubicado en Huehuetenango, Guatemala. Antony Santos 
+es el comprador del terreno y ha solicitado asistencia legal para asegurar que
+ la transacción se realice sin problemas legales.
+Acciones a Tomar:
+Verificar la validez y autenticidad de la escritura número 
+5678 en el Registro de la Propiedad de Huehuetenango.
+Revisar cualquier restricción o limitación asociada con la 
+propiedad según la escritura y el registro de la
+ propiedad.
+Asegurarse de que todas las partes involucradas 
+en la transacción, incluyendo el vendedor y 
+Antony Santos, estén presentes y dispuestas 
+a firmar la escritura.
+Coordinar con un notario público para llevar
+ a cabo la redacción y firma de la escritura, asegurando
+ que todos los requisitos legales se cumplan a
+decuadamente.
+Verificar la identidad de las partes involucradas
+ mediante la presentación de documentos de 
+identificación válidos, como el Documento Personal 
+de Identificación (DPI) en Guatemala.
+Revisar detenidamente los términos y condiciones 
+de la transacción, incluyendo el precio de compra, 
+las condiciones de pago y cualquier otra cláusula 
+relevante.
+Asegurarse de que se realice el pago completo del
+ precio acordado antes de proceder con la firma final 
+de la escritura.
+Preparar copias adicionales de la escritura para todas 
+las partes involucradas y proporcionar asesoramiento 
+legal sobre los derechos y responsabilidades de Antony
+ Santos como nueva propietaria del terreno.
+Fecha Límite:
+La fecha límite para completar todas las acciones
+mencionadas anteriormente es el 21 de mayo de 2024, 
+para garantizar que la transacción se lleve a cabo sin 
+demoras innecesarias.</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>estado_civil</t>
+  </si>
+  <si>
+    <t>numero_de_telefono</t>
+  </si>
+  <si>
+    <t>fecha_de_nacimiento</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Solter@</t>
+  </si>
+  <si>
+    <t>53248271</t>
+  </si>
+  <si>
+    <t>2005-03-28</t>
+  </si>
+  <si>
+    <t>id_audiencia</t>
+  </si>
+  <si>
+    <t>ubicacion_de_la_audiencia</t>
+  </si>
+  <si>
+    <t>fecha_de_audiencia</t>
+  </si>
+  <si>
+    <t>hora_de_la_audiencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">huehuetenango </t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>9:40am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audiencia por Allanamiento de Morada - Registro Legal
+Fecha: 14 de mayo de 2024
+Cliente: Antony Santos
+Descripción del Caso:
+El cliente Antony Santos se presenta en la audiencia en calidad 
+de víctima en un caso de allanamiento de morada ocurrido 
+el pasado 10 de mayo de 2024 en su residencia ubicada en
+ [dirección completa].
+Detalles del Incidente:
+El día 10 de mayo de 2024, el señor Antony Santos regresó a su
+ residencia para encontrar que había sido víctima de un 
+allanamiento de morada. La puerta principal había sido
+ forzada y varios objetos de valor habían sido sustraídos 
+de la propiedad. Además, el señor Santos había instalado
+ sistemas de videovigilancia en su hogar, y las cámaras 
+capturaron a los individuos responsables del allanamiento.
+Pruebas Presentadas:
+Grabaciones de las cámaras de seguridad: 
+El cliente Antony Santos presenta como prueba grabaciones 
+de las cámaras de seguridad instaladas en su residencia, las 
+cuales muestran a dos individuos ingresando ilegalmente a la
+ propiedad y sustrayendo objetos de valor.
+Acciones Solicitadas:
+Se solicita la identificación y el enjuiciamiento de los individuos
+ responsables del allanamiento de morada y el robo perpetrado
+ en la residencia del señor Antony Santos.
+Se solicita la restitución de los objetos sustraídos y la reparación 
+de cualquier daño causado durante el allanamiento de morada.
+Representación Legal:
+El cliente Antony Santos está representado legalmente por el 
+abogado [Nombre del Abogado], quien presentará pruebas y 
+argumentará en su nombre durante la audiencia.
+Fecha de la Audiencia:
+La audiencia por el caso de allanamiento de morada está 
+programada para el día [fecha de la audiencia] en 
+[nombre del tribunal] a las [hora de la audiencia].
+</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>id_caso</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>costo</t>
-  </si>
-  <si>
-    <t>detalles</t>
-  </si>
-  <si>
-    <t>saldo_pendiente</t>
-  </si>
-  <si>
-    <t>estado_del_proceso</t>
-  </si>
-  <si>
-    <t>id_cliente</t>
-  </si>
-  <si>
-    <t>dpi</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>estado_civil</t>
-  </si>
-  <si>
-    <t>numero_de_telefono</t>
-  </si>
-  <si>
-    <t>fecha_de_nacimiento</t>
-  </si>
-  <si>
-    <t>id_audiencia</t>
-  </si>
-  <si>
-    <t>ubicacion_de_la_audiencia</t>
-  </si>
-  <si>
-    <t>fecha_de_audiencia</t>
-  </si>
-  <si>
-    <t>hora_de_la_audiencia</t>
+    <t>guatemala</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>5pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demanda por manuntencion </t>
   </si>
 </sst>
 </file>
@@ -131,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,17 +289,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -177,7 +296,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -185,25 +304,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="G1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G1" t="s" s="0">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>13</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -213,7 +355,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -221,22 +363,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>19</v>
+      <c r="B2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -246,7 +408,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -254,22 +416,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/datos_guardados.xlsx
+++ b/datos_guardados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>id_user</t>
   </si>
@@ -35,6 +35,12 @@
     <t>1234</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>id_caso</t>
   </si>
   <si>
@@ -56,83 +62,46 @@
     <t>id_cliente</t>
   </si>
   <si>
-    <t>registro de escritura</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>El caso involucra la escritura de propiedad de un terreno 
-ubicado en Huehuetenango, Guatemala. Antony Santos 
-es el comprador del terreno y ha solicitado asistencia legal para asegurar que
- la transacción se realice sin problemas legales.
-Acciones a Tomar:
-Verificar la validez y autenticidad de la escritura número 
-5678 en el Registro de la Propiedad de Huehuetenango.
-Revisar cualquier restricción o limitación asociada con la 
-propiedad según la escritura y el registro de la
- propiedad.
-Asegurarse de que todas las partes involucradas 
-en la transacción, incluyendo el vendedor y 
-Antony Santos, estén presentes y dispuestas 
-a firmar la escritura.
-Coordinar con un notario público para llevar
- a cabo la redacción y firma de la escritura, asegurando
- que todos los requisitos legales se cumplan a
-decuadamente.
-Verificar la identidad de las partes involucradas
- mediante la presentación de documentos de 
-identificación válidos, como el Documento Personal 
-de Identificación (DPI) en Guatemala.
-Revisar detenidamente los términos y condiciones 
-de la transacción, incluyendo el precio de compra, 
-las condiciones de pago y cualquier otra cláusula 
-relevante.
-Asegurarse de que se realice el pago completo del
- precio acordado antes de proceder con la firma final 
-de la escritura.
-Preparar copias adicionales de la escritura para todas 
-las partes involucradas y proporcionar asesoramiento 
-legal sobre los derechos y responsabilidades de Antony
- Santos como nueva propietaria del terreno.
-Fecha Límite:
-La fecha límite para completar todas las acciones
-mencionadas anteriormente es el 21 de mayo de 2024, 
-para garantizar que la transacción se lleve a cabo sin 
-demoras innecesarias.</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>pendiente</t>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>estado_civil</t>
+  </si>
+  <si>
+    <t>numero_de_telefono</t>
+  </si>
+  <si>
+    <t>fecha_de_nacimiento</t>
+  </si>
+  <si>
+    <t>santos</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>casad@</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>dpi</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>estado_civil</t>
-  </si>
-  <si>
-    <t>numero_de_telefono</t>
-  </si>
-  <si>
-    <t>fecha_de_nacimiento</t>
-  </si>
-  <si>
-    <t>Antony</t>
-  </si>
-  <si>
-    <t>Santos</t>
+    <t>antony ramiro</t>
+  </si>
+  <si>
+    <t>santos lopez</t>
   </si>
   <si>
     <t>Solter@</t>
@@ -141,7 +110,7 @@
     <t>53248271</t>
   </si>
   <si>
-    <t>2005-03-28</t>
+    <t>2024-05-15</t>
   </si>
   <si>
     <t>id_audiencia</t>
@@ -156,67 +125,57 @@
     <t>hora_de_la_audiencia</t>
   </si>
   <si>
-    <t xml:space="preserve">huehuetenango </t>
-  </si>
-  <si>
-    <t>2024-05-16</t>
-  </si>
-  <si>
-    <t>9:40am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audiencia por Allanamiento de Morada - Registro Legal
-Fecha: 14 de mayo de 2024
-Cliente: Antony Santos
-Descripción del Caso:
-El cliente Antony Santos se presenta en la audiencia en calidad 
-de víctima en un caso de allanamiento de morada ocurrido 
-el pasado 10 de mayo de 2024 en su residencia ubicada en
- [dirección completa].
-Detalles del Incidente:
-El día 10 de mayo de 2024, el señor Antony Santos regresó a su
- residencia para encontrar que había sido víctima de un 
-allanamiento de morada. La puerta principal había sido
- forzada y varios objetos de valor habían sido sustraídos 
-de la propiedad. Además, el señor Santos había instalado
- sistemas de videovigilancia en su hogar, y las cámaras 
-capturaron a los individuos responsables del allanamiento.
-Pruebas Presentadas:
-Grabaciones de las cámaras de seguridad: 
-El cliente Antony Santos presenta como prueba grabaciones 
-de las cámaras de seguridad instaladas en su residencia, las 
-cuales muestran a dos individuos ingresando ilegalmente a la
- propiedad y sustrayendo objetos de valor.
-Acciones Solicitadas:
-Se solicita la identificación y el enjuiciamiento de los individuos
- responsables del allanamiento de morada y el robo perpetrado
- en la residencia del señor Antony Santos.
-Se solicita la restitución de los objetos sustraídos y la reparación 
-de cualquier daño causado durante el allanamiento de morada.
-Representación Legal:
-El cliente Antony Santos está representado legalmente por el 
-abogado [Nombre del Abogado], quien presentará pruebas y 
-argumentará en su nombre durante la audiencia.
-Fecha de la Audiencia:
-La audiencia por el caso de allanamiento de morada está 
-programada para el día [fecha de la audiencia] en 
-[nombre del tribunal] a las [hora de la audiencia].
-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>7</t>
   </si>
   <si>
     <t>guatemala</t>
   </si>
   <si>
-    <t>2024-05-07</t>
-  </si>
-  <si>
-    <t>5pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demanda por manuntencion </t>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>hora</t>
+  </si>
+  <si>
+    <t>detalles\
+d
+d
+d
+dd
+d\d\d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d
+d</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>xela</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>detalles2</t>
   </si>
 </sst>
 </file>
@@ -261,7 +220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -289,6 +248,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -296,7 +266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,48 +274,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -355,7 +302,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -363,42 +310,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="0">
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="B3" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>29</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -416,62 +383,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="C2" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>40</v>
-      </c>
       <c r="E3" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/datos_guardados.xlsx
+++ b/datos_guardados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>id_user</t>
   </si>
@@ -62,120 +62,80 @@
     <t>id_cliente</t>
   </si>
   <si>
-    <t>dpi</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>estado_civil</t>
-  </si>
-  <si>
-    <t>numero_de_telefono</t>
-  </si>
-  <si>
-    <t>fecha_de_nacimiento</t>
-  </si>
-  <si>
-    <t>santos</t>
-  </si>
-  <si>
-    <t>lopez</t>
-  </si>
-  <si>
-    <t>casad@</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2024-01-01</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>antony ramiro</t>
-  </si>
-  <si>
-    <t>santos lopez</t>
-  </si>
-  <si>
-    <t>Solter@</t>
-  </si>
-  <si>
-    <t>53248271</t>
-  </si>
-  <si>
-    <t>2024-05-15</t>
-  </si>
-  <si>
-    <t>id_audiencia</t>
-  </si>
-  <si>
-    <t>ubicacion_de_la_audiencia</t>
-  </si>
-  <si>
-    <t>fecha_de_audiencia</t>
-  </si>
-  <si>
-    <t>hora_de_la_audiencia</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>guatemala</t>
-  </si>
-  <si>
-    <t>2024-05-24</t>
-  </si>
-  <si>
-    <t>hora</t>
-  </si>
-  <si>
-    <t>detalles\
-d
-d
-d
-dd
-d\d\d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
-d
+    <t>casamiento</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>detalles
 d
 d
 d
 d</t>
   </si>
   <si>
-    <t>8</t>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>dpi</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>estado_civil</t>
+  </si>
+  <si>
+    <t>numero_de_telefono</t>
+  </si>
+  <si>
+    <t>fecha_de_nacimiento</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santos </t>
+  </si>
+  <si>
+    <t>Casad@</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>id_audiencia</t>
+  </si>
+  <si>
+    <t>ubicacion_de_la_audiencia</t>
+  </si>
+  <si>
+    <t>fecha_de_audiencia</t>
+  </si>
+  <si>
+    <t>hora_de_la_audiencia</t>
   </si>
   <si>
     <t>xela</t>
   </si>
   <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
     <t>3pm</t>
   </si>
   <si>
-    <t>detalles2</t>
+    <t>detalles de audiencia</t>
   </si>
 </sst>
 </file>
@@ -266,7 +226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -295,6 +255,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -302,7 +285,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -310,22 +293,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -333,39 +316,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +338,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,19 +346,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>35</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>11</v>
@@ -403,42 +366,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
